--- a/app/data/vuelos-2024-09-04.xlsx
+++ b/app/data/vuelos-2024-09-04.xlsx
@@ -512,11 +512,7 @@
       <c r="G2" s="3" t="inlineStr"/>
       <c r="H2" s="3" t="inlineStr"/>
       <c r="I2" s="3" t="inlineStr"/>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>15:10</t>
-        </is>
-      </c>
+      <c r="J2" s="3" t="inlineStr"/>
       <c r="K2" s="3" t="inlineStr">
         <is>
           <t>16:30</t>
@@ -548,11 +544,7 @@
       </c>
       <c r="G3" s="3" t="inlineStr"/>
       <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>14:20</t>
-        </is>
-      </c>
+      <c r="I3" s="3" t="inlineStr"/>
       <c r="J3" s="3" t="inlineStr">
         <is>
           <t>15:50</t>
@@ -584,11 +576,7 @@
       <c r="E4" s="3" t="inlineStr"/>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr"/>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
+      <c r="H4" s="3" t="inlineStr"/>
       <c r="I4" s="3" t="inlineStr"/>
       <c r="J4" s="3" t="inlineStr"/>
       <c r="K4" s="3" t="inlineStr"/>
@@ -612,12 +600,12 @@
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>12:05</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
       <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr"/>
       <c r="K5" s="3" t="inlineStr"/>
@@ -669,11 +657,7 @@
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr"/>
       <c r="I7" s="3" t="inlineStr"/>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
+      <c r="J7" s="3" t="inlineStr"/>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr"/>
       <c r="M7" s="3" t="inlineStr"/>
@@ -694,20 +678,12 @@
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>11:15</t>
-        </is>
-      </c>
+      <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr"/>
       <c r="H8" s="3" t="inlineStr"/>
       <c r="I8" s="3" t="inlineStr"/>
       <c r="J8" s="3" t="inlineStr"/>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
+      <c r="K8" s="3" t="inlineStr"/>
       <c r="L8" s="3" t="inlineStr"/>
       <c r="M8" s="3" t="inlineStr"/>
       <c r="N8" s="3" t="inlineStr"/>
